--- a/VitalSigns/CurrentBuild/StructureDefinition-VkpVitalSignsObservationBloodpressure.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-VkpVitalSignsObservationBloodpressure.xlsx
@@ -1223,7 +1223,7 @@
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ValueSet/vkp-subject-identifier-systems</t>
+    <t>http://hl7.no/fhir/ValueSet/vkp-subject-identifiers</t>
   </si>
   <si>
     <t>Identifier.system</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-VkpVitalSignsObservationBloodpressure.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-VkpVitalSignsObservationBloodpressure.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$234</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$184</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8760" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6886" uniqueCount="757">
   <si>
     <t>Property</t>
   </si>
@@ -2092,7 +2092,7 @@
     <t>Used when reporting systolic and diastolic blood pressure.</t>
   </si>
   <si>
-    <t>For a discussion on the ways Observations can be assembled in groups together see Notes below.</t>
+    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/observation.html#notes) below.</t>
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
@@ -2201,12 +2201,6 @@
     <t>SystolicBP</t>
   </si>
   <si>
-    <t>Peak  systemic arterial blood pressure - measured in systolic or contraction phase of the heart cycle.</t>
-  </si>
-  <si>
-    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/observation.html#notes) below.</t>
-  </si>
-  <si>
     <t>Component Test
 Component Name</t>
   </si>
@@ -2390,9 +2384,6 @@
     <t>DiastolicBP</t>
   </si>
   <si>
-    <t>Minimum systemic arterial blood pressure - measured in the diastolic or relaxation phase of the heart cycle.</t>
-  </si>
-  <si>
     <t>Diastolic Blood Pressure</t>
   </si>
   <si>
@@ -2403,37 +2394,6 @@
   </si>
   <si>
     <t>8462-4</t>
-  </si>
-  <si>
-    <t>MeanArterialPressure</t>
-  </si>
-  <si>
-    <t>The average arterial pressure that occurs over the entire course of the heart contraction and relaxation cycle.</t>
-  </si>
-  <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>PulsePressure</t>
-  </si>
-  <si>
-    <t>The difference between the systolic and diastolic pressure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>SAPSnomedCode</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
-  </si>
-  <si>
-    <t>4461000202102</t>
   </si>
 </sst>
 </file>
@@ -2745,7 +2705,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO234"/>
+  <dimension ref="A1:AO184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2755,7 +2715,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="47.40625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.73046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.9296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -17841,13 +17801,13 @@
         <v>590</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>693</v>
+        <v>658</v>
       </c>
       <c r="L129" t="s" s="2">
         <v>658</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>694</v>
+        <v>659</v>
       </c>
       <c r="N129" t="s" s="2">
         <v>660</v>
@@ -18289,7 +18249,7 @@
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -18404,7 +18364,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18519,7 +18479,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18636,7 +18596,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18662,10 +18622,10 @@
         <v>238</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M136" t="s" s="2">
         <v>241</v>
@@ -18753,10 +18713,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C137" t="s" s="2">
         <v>79</v>
@@ -18781,10 +18741,10 @@
         <v>238</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M137" t="s" s="2">
         <v>241</v>
@@ -18874,7 +18834,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -18989,7 +18949,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -19106,7 +19066,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -19225,7 +19185,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -19342,7 +19302,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -19382,7 +19342,7 @@
       </c>
       <c r="P142" s="2"/>
       <c r="Q142" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="R142" t="s" s="2">
         <v>79</v>
@@ -19459,7 +19419,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -19576,7 +19536,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19695,7 +19655,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19933,7 +19893,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -20048,7 +20008,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -20165,7 +20125,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -20188,19 +20148,19 @@
         <v>90</v>
       </c>
       <c r="J149" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="L149" t="s" s="2">
         <v>714</v>
       </c>
-      <c r="K149" t="s" s="2">
+      <c r="M149" t="s" s="2">
         <v>715</v>
       </c>
-      <c r="L149" t="s" s="2">
+      <c r="N149" t="s" s="2">
         <v>716</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>79</v>
@@ -20249,7 +20209,7 @@
         <v>79</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>77</v>
@@ -20270,10 +20230,10 @@
         <v>79</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>79</v>
@@ -20284,7 +20244,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -20310,20 +20270,20 @@
         <v>109</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" t="s" s="2">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P150" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="Q150" t="s" s="2">
         <v>79</v>
@@ -20347,28 +20307,28 @@
         <v>208</v>
       </c>
       <c r="X150" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="Y150" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="Z150" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE150" t="s" s="2">
         <v>727</v>
-      </c>
-      <c r="Y150" t="s" s="2">
-        <v>728</v>
-      </c>
-      <c r="Z150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>77</v>
@@ -20389,10 +20349,10 @@
         <v>79</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>79</v>
@@ -20403,7 +20363,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -20429,14 +20389,14 @@
         <v>91</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>79</v>
@@ -20485,7 +20445,7 @@
         <v>79</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>77</v>
@@ -20506,10 +20466,10 @@
         <v>79</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>79</v>
@@ -20520,7 +20480,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20546,72 +20506,72 @@
         <v>103</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P152" s="2"/>
       <c r="Q152" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="R152" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S152" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T152" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U152" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V152" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W152" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X152" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y152" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z152" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA152" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB152" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC152" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD152" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE152" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="AF152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG152" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH152" t="s" s="2">
         <v>743</v>
-      </c>
-      <c r="R152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE152" t="s" s="2">
-        <v>744</v>
-      </c>
-      <c r="AF152" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG152" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH152" t="s" s="2">
-        <v>745</v>
       </c>
       <c r="AI152" t="s" s="2">
         <v>101</v>
@@ -20623,10 +20583,10 @@
         <v>79</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>79</v>
@@ -20637,7 +20597,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20663,23 +20623,23 @@
         <v>109</v>
       </c>
       <c r="K153" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="M153" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="N153" t="s" s="2">
         <v>748</v>
-      </c>
-      <c r="L153" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>749</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>750</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P153" s="2"/>
       <c r="Q153" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="R153" t="s" s="2">
         <v>79</v>
@@ -20721,7 +20681,7 @@
         <v>79</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>77</v>
@@ -20742,10 +20702,10 @@
         <v>79</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>79</v>
@@ -21116,7 +21076,7 @@
         <v>656</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C157" t="s" s="2">
         <v>79</v>
@@ -21141,13 +21101,13 @@
         <v>590</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>755</v>
+        <v>658</v>
       </c>
       <c r="L157" t="s" s="2">
         <v>658</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>694</v>
+        <v>659</v>
       </c>
       <c r="N157" t="s" s="2">
         <v>660</v>
@@ -21704,7 +21664,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21819,7 +21779,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21936,7 +21896,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21962,10 +21922,10 @@
         <v>238</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="M164" t="s" s="2">
         <v>241</v>
@@ -22053,10 +22013,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C165" t="s" s="2">
         <v>79</v>
@@ -22081,10 +22041,10 @@
         <v>238</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>241</v>
@@ -22174,7 +22134,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -22289,7 +22249,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -22406,7 +22366,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22525,7 +22485,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22642,7 +22602,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22682,7 +22642,7 @@
       </c>
       <c r="P170" s="2"/>
       <c r="Q170" t="s" s="2">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="R170" t="s" s="2">
         <v>79</v>
@@ -22759,7 +22719,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22876,7 +22836,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22995,7 +22955,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -23233,7 +23193,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -23348,7 +23308,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -23465,7 +23425,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23488,19 +23448,19 @@
         <v>90</v>
       </c>
       <c r="J177" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="K177" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="L177" t="s" s="2">
         <v>714</v>
       </c>
-      <c r="K177" t="s" s="2">
+      <c r="M177" t="s" s="2">
         <v>715</v>
       </c>
-      <c r="L177" t="s" s="2">
+      <c r="N177" t="s" s="2">
         <v>716</v>
-      </c>
-      <c r="M177" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>79</v>
@@ -23549,7 +23509,7 @@
         <v>79</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>77</v>
@@ -23570,10 +23530,10 @@
         <v>79</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>79</v>
@@ -23584,7 +23544,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23610,20 +23570,20 @@
         <v>109</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="M178" s="2"/>
       <c r="N178" t="s" s="2">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P178" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="Q178" t="s" s="2">
         <v>79</v>
@@ -23647,28 +23607,28 @@
         <v>208</v>
       </c>
       <c r="X178" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="Y178" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="Z178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE178" t="s" s="2">
         <v>727</v>
-      </c>
-      <c r="Y178" t="s" s="2">
-        <v>728</v>
-      </c>
-      <c r="Z178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE178" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>77</v>
@@ -23689,10 +23649,10 @@
         <v>79</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>79</v>
@@ -23703,7 +23663,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23729,14 +23689,14 @@
         <v>91</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>79</v>
@@ -23785,7 +23745,7 @@
         <v>79</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>77</v>
@@ -23806,10 +23766,10 @@
         <v>79</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="AN179" t="s" s="2">
         <v>79</v>
@@ -23820,7 +23780,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23846,72 +23806,72 @@
         <v>103</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P180" s="2"/>
       <c r="Q180" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="R180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE180" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="AF180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG180" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH180" t="s" s="2">
         <v>743</v>
-      </c>
-      <c r="R180" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S180" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T180" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U180" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V180" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W180" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X180" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y180" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z180" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA180" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB180" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC180" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD180" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE180" t="s" s="2">
-        <v>744</v>
-      </c>
-      <c r="AF180" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG180" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH180" t="s" s="2">
-        <v>745</v>
       </c>
       <c r="AI180" t="s" s="2">
         <v>101</v>
@@ -23923,10 +23883,10 @@
         <v>79</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="AM180" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="AN180" t="s" s="2">
         <v>79</v>
@@ -23937,7 +23897,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23963,23 +23923,23 @@
         <v>109</v>
       </c>
       <c r="K181" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="L181" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="M181" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="N181" t="s" s="2">
         <v>748</v>
-      </c>
-      <c r="L181" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="M181" t="s" s="2">
-        <v>749</v>
-      </c>
-      <c r="N181" t="s" s="2">
-        <v>750</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P181" s="2"/>
       <c r="Q181" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="R181" t="s" s="2">
         <v>79</v>
@@ -24021,7 +23981,7 @@
         <v>79</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>77</v>
@@ -24042,10 +24002,10 @@
         <v>79</v>
       </c>
       <c r="AL181" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="AM181" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="AN181" t="s" s="2">
         <v>79</v>
@@ -24411,5906 +24371,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="B185" t="s" s="2">
-        <v>760</v>
-      </c>
-      <c r="C185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D185" s="2"/>
-      <c r="E185" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F185" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G185" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I185" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J185" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="K185" t="s" s="2">
-        <v>761</v>
-      </c>
-      <c r="L185" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="M185" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="N185" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="O185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P185" s="2"/>
-      <c r="Q185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE185" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="AF185" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG185" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI185" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="AJ185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL185" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="AM185" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="AN185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO185" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="186" hidden="true">
-      <c r="A186" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="B186" s="2"/>
-      <c r="C186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D186" s="2"/>
-      <c r="E186" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F186" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J186" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K186" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L186" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M186" s="2"/>
-      <c r="N186" s="2"/>
-      <c r="O186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P186" s="2"/>
-      <c r="Q186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE186" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AF186" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG186" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM186" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO186" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="187" hidden="true">
-      <c r="A187" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="B187" s="2"/>
-      <c r="C187" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="D187" s="2"/>
-      <c r="E187" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F187" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J187" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="K187" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L187" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M187" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N187" s="2"/>
-      <c r="O187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P187" s="2"/>
-      <c r="Q187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE187" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AF187" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG187" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI187" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM187" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO187" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="188" hidden="true">
-      <c r="A188" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="B188" s="2"/>
-      <c r="C188" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="D188" s="2"/>
-      <c r="E188" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F188" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H188" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I188" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J188" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="K188" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="L188" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="M188" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P188" s="2"/>
-      <c r="Q188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE188" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="AF188" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG188" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI188" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM188" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO188" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="B189" s="2"/>
-      <c r="C189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D189" s="2"/>
-      <c r="E189" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F189" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G189" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I189" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J189" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="K189" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="L189" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="M189" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="N189" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="O189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P189" s="2"/>
-      <c r="Q189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W189" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="X189" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="Y189" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="Z189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE189" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="AF189" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG189" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI189" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK189" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="AL189" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AM189" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AN189" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AO189" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="190" hidden="true">
-      <c r="A190" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="B190" s="2"/>
-      <c r="C190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D190" s="2"/>
-      <c r="E190" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F190" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J190" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K190" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L190" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M190" s="2"/>
-      <c r="N190" s="2"/>
-      <c r="O190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P190" s="2"/>
-      <c r="Q190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE190" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AF190" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG190" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM190" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO190" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="191" hidden="true">
-      <c r="A191" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="B191" s="2"/>
-      <c r="C191" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="D191" s="2"/>
-      <c r="E191" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F191" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J191" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="K191" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L191" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M191" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N191" s="2"/>
-      <c r="O191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P191" s="2"/>
-      <c r="Q191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA191" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AB191" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AC191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD191" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE191" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AF191" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG191" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI191" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM191" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO191" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="192" hidden="true">
-      <c r="A192" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="B192" s="2"/>
-      <c r="C192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D192" s="2"/>
-      <c r="E192" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F192" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I192" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J192" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="K192" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L192" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P192" s="2"/>
-      <c r="Q192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE192" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AF192" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG192" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI192" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL192" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AM192" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AN192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO192" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="193" hidden="true">
-      <c r="A193" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="B193" s="2"/>
-      <c r="C193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D193" s="2"/>
-      <c r="E193" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F193" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I193" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J193" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K193" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="L193" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M193" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N193" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P193" s="2"/>
-      <c r="Q193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE193" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AF193" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG193" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI193" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL193" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AM193" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AN193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO193" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="194" hidden="true">
-      <c r="A194" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="B194" s="2"/>
-      <c r="C194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D194" s="2"/>
-      <c r="E194" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F194" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G194" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I194" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J194" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="K194" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="L194" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="M194" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="N194" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P194" s="2"/>
-      <c r="Q194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W194" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="X194" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="Y194" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="Z194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA194" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AB194" s="2"/>
-      <c r="AC194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD194" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AE194" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="AF194" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG194" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH194" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="AI194" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK194" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="AL194" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AM194" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AN194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO194" t="s" s="2">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="B195" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D195" s="2"/>
-      <c r="E195" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F195" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G195" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I195" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J195" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="K195" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="L195" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="M195" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="N195" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P195" s="2"/>
-      <c r="Q195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W195" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="X195" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="Y195" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="Z195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE195" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="AF195" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG195" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH195" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="AI195" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK195" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="AL195" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AM195" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AN195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO195" t="s" s="2">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="196" hidden="true">
-      <c r="A196" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="B196" s="2"/>
-      <c r="C196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D196" s="2"/>
-      <c r="E196" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F196" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J196" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K196" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L196" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M196" s="2"/>
-      <c r="N196" s="2"/>
-      <c r="O196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P196" s="2"/>
-      <c r="Q196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE196" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AF196" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG196" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM196" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO196" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="197" hidden="true">
-      <c r="A197" t="s" s="2">
-        <v>712</v>
-      </c>
-      <c r="B197" s="2"/>
-      <c r="C197" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="D197" s="2"/>
-      <c r="E197" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F197" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J197" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="K197" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L197" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M197" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N197" s="2"/>
-      <c r="O197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P197" s="2"/>
-      <c r="Q197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA197" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AB197" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AC197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD197" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE197" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AF197" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG197" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI197" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM197" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO197" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="198" hidden="true">
-      <c r="A198" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="B198" s="2"/>
-      <c r="C198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D198" s="2"/>
-      <c r="E198" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F198" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I198" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J198" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="K198" t="s" s="2">
-        <v>715</v>
-      </c>
-      <c r="L198" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="M198" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="N198" t="s" s="2">
-        <v>718</v>
-      </c>
-      <c r="O198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P198" s="2"/>
-      <c r="Q198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE198" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="AF198" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG198" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI198" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL198" t="s" s="2">
-        <v>720</v>
-      </c>
-      <c r="AM198" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="AN198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO198" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="199" hidden="true">
-      <c r="A199" t="s" s="2">
-        <v>722</v>
-      </c>
-      <c r="B199" s="2"/>
-      <c r="C199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D199" s="2"/>
-      <c r="E199" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F199" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H199" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I199" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J199" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="K199" t="s" s="2">
-        <v>723</v>
-      </c>
-      <c r="L199" t="s" s="2">
-        <v>724</v>
-      </c>
-      <c r="M199" s="2"/>
-      <c r="N199" t="s" s="2">
-        <v>725</v>
-      </c>
-      <c r="O199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P199" t="s" s="2">
-        <v>726</v>
-      </c>
-      <c r="Q199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W199" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="X199" t="s" s="2">
-        <v>727</v>
-      </c>
-      <c r="Y199" t="s" s="2">
-        <v>728</v>
-      </c>
-      <c r="Z199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE199" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="AF199" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG199" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI199" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL199" t="s" s="2">
-        <v>730</v>
-      </c>
-      <c r="AM199" t="s" s="2">
-        <v>731</v>
-      </c>
-      <c r="AN199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO199" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="200" hidden="true">
-      <c r="A200" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="B200" s="2"/>
-      <c r="C200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D200" s="2"/>
-      <c r="E200" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F200" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I200" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J200" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K200" t="s" s="2">
-        <v>733</v>
-      </c>
-      <c r="L200" t="s" s="2">
-        <v>734</v>
-      </c>
-      <c r="M200" s="2"/>
-      <c r="N200" t="s" s="2">
-        <v>735</v>
-      </c>
-      <c r="O200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P200" s="2"/>
-      <c r="Q200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE200" t="s" s="2">
-        <v>736</v>
-      </c>
-      <c r="AF200" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG200" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI200" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL200" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="AM200" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="AN200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO200" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="201" hidden="true">
-      <c r="A201" t="s" s="2">
-        <v>739</v>
-      </c>
-      <c r="B201" s="2"/>
-      <c r="C201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D201" s="2"/>
-      <c r="E201" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F201" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I201" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J201" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K201" t="s" s="2">
-        <v>740</v>
-      </c>
-      <c r="L201" t="s" s="2">
-        <v>741</v>
-      </c>
-      <c r="M201" s="2"/>
-      <c r="N201" t="s" s="2">
-        <v>742</v>
-      </c>
-      <c r="O201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P201" s="2"/>
-      <c r="Q201" t="s" s="2">
-        <v>743</v>
-      </c>
-      <c r="R201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE201" t="s" s="2">
-        <v>744</v>
-      </c>
-      <c r="AF201" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG201" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH201" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="AI201" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL201" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="AM201" t="s" s="2">
-        <v>746</v>
-      </c>
-      <c r="AN201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO201" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="202" hidden="true">
-      <c r="A202" t="s" s="2">
-        <v>747</v>
-      </c>
-      <c r="B202" s="2"/>
-      <c r="C202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D202" s="2"/>
-      <c r="E202" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F202" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I202" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J202" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="K202" t="s" s="2">
-        <v>762</v>
-      </c>
-      <c r="L202" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="M202" t="s" s="2">
-        <v>749</v>
-      </c>
-      <c r="N202" t="s" s="2">
-        <v>750</v>
-      </c>
-      <c r="O202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P202" s="2"/>
-      <c r="Q202" t="s" s="2">
-        <v>751</v>
-      </c>
-      <c r="R202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE202" t="s" s="2">
-        <v>752</v>
-      </c>
-      <c r="AF202" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG202" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI202" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL202" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="AM202" t="s" s="2">
-        <v>753</v>
-      </c>
-      <c r="AN202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO202" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="B203" s="2"/>
-      <c r="C203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D203" s="2"/>
-      <c r="E203" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F203" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G203" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J203" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="K203" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="L203" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="M203" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="N203" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P203" s="2"/>
-      <c r="Q203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W203" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="X203" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="Y203" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="Z203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE203" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="AF203" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG203" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH203" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="AI203" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL203" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM203" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AN203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO203" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="204" hidden="true">
-      <c r="A204" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="B204" s="2"/>
-      <c r="C204" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="D204" s="2"/>
-      <c r="E204" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F204" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J204" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="K204" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="L204" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M204" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N204" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P204" s="2"/>
-      <c r="Q204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W204" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="X204" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="Y204" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="Z204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE204" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="AF204" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG204" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI204" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK204" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AL204" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AM204" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AN204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO204" t="s" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="205" hidden="true">
-      <c r="A205" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="B205" s="2"/>
-      <c r="C205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D205" s="2"/>
-      <c r="E205" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F205" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K205" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="L205" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="M205" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N205" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="O205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P205" s="2"/>
-      <c r="Q205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE205" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="AF205" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG205" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI205" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL205" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AM205" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="AN205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO205" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="B206" t="s" s="2">
-        <v>764</v>
-      </c>
-      <c r="C206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D206" s="2"/>
-      <c r="E206" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F206" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G206" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I206" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J206" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="K206" t="s" s="2">
-        <v>765</v>
-      </c>
-      <c r="L206" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="M206" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="N206" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="O206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P206" s="2"/>
-      <c r="Q206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE206" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="AF206" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG206" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI206" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="AJ206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL206" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="AM206" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="AN206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO206" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="207" hidden="true">
-      <c r="A207" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="B207" s="2"/>
-      <c r="C207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D207" s="2"/>
-      <c r="E207" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F207" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J207" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K207" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L207" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M207" s="2"/>
-      <c r="N207" s="2"/>
-      <c r="O207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P207" s="2"/>
-      <c r="Q207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE207" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AF207" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG207" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM207" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO207" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="208" hidden="true">
-      <c r="A208" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="B208" s="2"/>
-      <c r="C208" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="D208" s="2"/>
-      <c r="E208" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F208" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J208" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="K208" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L208" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M208" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N208" s="2"/>
-      <c r="O208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P208" s="2"/>
-      <c r="Q208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE208" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AF208" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG208" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI208" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM208" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO208" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="209" hidden="true">
-      <c r="A209" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="B209" s="2"/>
-      <c r="C209" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="D209" s="2"/>
-      <c r="E209" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F209" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H209" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I209" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J209" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="K209" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="L209" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="M209" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N209" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P209" s="2"/>
-      <c r="Q209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE209" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="AF209" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG209" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI209" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM209" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO209" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="B210" s="2"/>
-      <c r="C210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D210" s="2"/>
-      <c r="E210" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F210" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G210" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I210" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J210" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="K210" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="L210" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="M210" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="N210" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="O210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P210" s="2"/>
-      <c r="Q210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W210" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="X210" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="Y210" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="Z210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE210" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="AF210" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG210" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI210" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK210" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="AL210" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AM210" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AN210" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AO210" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="211" hidden="true">
-      <c r="A211" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="B211" s="2"/>
-      <c r="C211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D211" s="2"/>
-      <c r="E211" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F211" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J211" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K211" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L211" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M211" s="2"/>
-      <c r="N211" s="2"/>
-      <c r="O211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P211" s="2"/>
-      <c r="Q211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE211" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AF211" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG211" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM211" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO211" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="212" hidden="true">
-      <c r="A212" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="B212" s="2"/>
-      <c r="C212" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="D212" s="2"/>
-      <c r="E212" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F212" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J212" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="K212" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L212" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M212" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N212" s="2"/>
-      <c r="O212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P212" s="2"/>
-      <c r="Q212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA212" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AB212" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AC212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD212" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE212" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AF212" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG212" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI212" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM212" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO212" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="213" hidden="true">
-      <c r="A213" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="B213" s="2"/>
-      <c r="C213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D213" s="2"/>
-      <c r="E213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F213" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I213" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J213" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="K213" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L213" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M213" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N213" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P213" s="2"/>
-      <c r="Q213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA213" t="s" s="2">
-        <v>766</v>
-      </c>
-      <c r="AB213" s="2"/>
-      <c r="AC213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD213" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE213" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AF213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG213" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI213" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL213" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AM213" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AN213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO213" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="214" hidden="true">
-      <c r="A214" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="B214" t="s" s="2">
-        <v>767</v>
-      </c>
-      <c r="C214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D214" s="2"/>
-      <c r="E214" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F214" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I214" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J214" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="K214" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L214" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M214" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N214" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P214" s="2"/>
-      <c r="Q214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE214" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AF214" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG214" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI214" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL214" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AM214" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AN214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO214" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="215" hidden="true">
-      <c r="A215" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="B215" s="2"/>
-      <c r="C215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D215" s="2"/>
-      <c r="E215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J215" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K215" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L215" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M215" s="2"/>
-      <c r="N215" s="2"/>
-      <c r="O215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P215" s="2"/>
-      <c r="Q215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE215" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AF215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG215" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM215" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO215" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="216" hidden="true">
-      <c r="A216" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="B216" s="2"/>
-      <c r="C216" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="D216" s="2"/>
-      <c r="E216" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F216" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J216" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="K216" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L216" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M216" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N216" s="2"/>
-      <c r="O216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P216" s="2"/>
-      <c r="Q216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA216" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AB216" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AC216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD216" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE216" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AF216" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG216" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI216" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM216" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO216" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="217" hidden="true">
-      <c r="A217" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="B217" s="2"/>
-      <c r="C217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D217" s="2"/>
-      <c r="E217" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F217" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I217" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J217" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K217" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="L217" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M217" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N217" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P217" s="2"/>
-      <c r="Q217" t="s" s="2">
-        <v>768</v>
-      </c>
-      <c r="R217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE217" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AF217" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG217" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI217" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL217" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AM217" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AN217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO217" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="218" hidden="true">
-      <c r="A218" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="B218" s="2"/>
-      <c r="C218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D218" s="2"/>
-      <c r="E218" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F218" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I218" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J218" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K218" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="L218" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M218" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N218" s="2"/>
-      <c r="O218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P218" s="2"/>
-      <c r="Q218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE218" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AF218" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG218" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI218" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL218" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AM218" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AN218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO218" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="219" hidden="true">
-      <c r="A219" t="s" s="2">
-        <v>706</v>
-      </c>
-      <c r="B219" s="2"/>
-      <c r="C219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D219" s="2"/>
-      <c r="E219" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F219" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I219" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J219" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="K219" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="L219" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M219" s="2"/>
-      <c r="N219" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P219" s="2"/>
-      <c r="Q219" t="s" s="2">
-        <v>769</v>
-      </c>
-      <c r="R219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE219" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AF219" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG219" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI219" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL219" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AM219" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AN219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO219" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="220" hidden="true">
-      <c r="A220" t="s" s="2">
-        <v>708</v>
-      </c>
-      <c r="B220" s="2"/>
-      <c r="C220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D220" s="2"/>
-      <c r="E220" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F220" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I220" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J220" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K220" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="L220" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M220" s="2"/>
-      <c r="N220" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P220" s="2"/>
-      <c r="Q220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE220" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AF220" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG220" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI220" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL220" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AM220" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AN220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO220" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="221" hidden="true">
-      <c r="A221" t="s" s="2">
-        <v>709</v>
-      </c>
-      <c r="B221" s="2"/>
-      <c r="C221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D221" s="2"/>
-      <c r="E221" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F221" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I221" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J221" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="K221" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="L221" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M221" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N221" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P221" s="2"/>
-      <c r="Q221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE221" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AF221" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG221" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI221" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL221" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AM221" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AN221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO221" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="222" hidden="true">
-      <c r="A222" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="B222" s="2"/>
-      <c r="C222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D222" s="2"/>
-      <c r="E222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F222" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I222" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J222" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K222" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="L222" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M222" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N222" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P222" s="2"/>
-      <c r="Q222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE222" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AF222" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG222" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI222" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL222" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AM222" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AN222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO222" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="223" hidden="true">
-      <c r="A223" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="B223" s="2"/>
-      <c r="C223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D223" s="2"/>
-      <c r="E223" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F223" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G223" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I223" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J223" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="K223" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="L223" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="M223" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="N223" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P223" s="2"/>
-      <c r="Q223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W223" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="X223" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="Y223" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="Z223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA223" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AB223" s="2"/>
-      <c r="AC223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD223" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AE223" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="AF223" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG223" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH223" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="AI223" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK223" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="AL223" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AM223" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AN223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO223" t="s" s="2">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="B224" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D224" s="2"/>
-      <c r="E224" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F224" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G224" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I224" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J224" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="K224" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="L224" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="M224" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="N224" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P224" s="2"/>
-      <c r="Q224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W224" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="X224" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="Y224" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="Z224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE224" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="AF224" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG224" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH224" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="AI224" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK224" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="AL224" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AM224" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AN224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO224" t="s" s="2">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="225" hidden="true">
-      <c r="A225" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="B225" s="2"/>
-      <c r="C225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D225" s="2"/>
-      <c r="E225" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F225" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J225" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K225" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L225" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M225" s="2"/>
-      <c r="N225" s="2"/>
-      <c r="O225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P225" s="2"/>
-      <c r="Q225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE225" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AF225" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG225" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM225" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO225" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="226" hidden="true">
-      <c r="A226" t="s" s="2">
-        <v>712</v>
-      </c>
-      <c r="B226" s="2"/>
-      <c r="C226" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="D226" s="2"/>
-      <c r="E226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F226" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J226" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="K226" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L226" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M226" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N226" s="2"/>
-      <c r="O226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P226" s="2"/>
-      <c r="Q226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA226" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AB226" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AC226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD226" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE226" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AF226" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG226" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI226" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM226" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO226" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="227" hidden="true">
-      <c r="A227" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="B227" s="2"/>
-      <c r="C227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D227" s="2"/>
-      <c r="E227" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F227" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I227" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J227" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="K227" t="s" s="2">
-        <v>715</v>
-      </c>
-      <c r="L227" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="M227" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="N227" t="s" s="2">
-        <v>718</v>
-      </c>
-      <c r="O227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P227" s="2"/>
-      <c r="Q227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE227" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="AF227" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG227" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI227" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL227" t="s" s="2">
-        <v>720</v>
-      </c>
-      <c r="AM227" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="AN227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO227" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="228" hidden="true">
-      <c r="A228" t="s" s="2">
-        <v>722</v>
-      </c>
-      <c r="B228" s="2"/>
-      <c r="C228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D228" s="2"/>
-      <c r="E228" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F228" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H228" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I228" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J228" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="K228" t="s" s="2">
-        <v>723</v>
-      </c>
-      <c r="L228" t="s" s="2">
-        <v>724</v>
-      </c>
-      <c r="M228" s="2"/>
-      <c r="N228" t="s" s="2">
-        <v>725</v>
-      </c>
-      <c r="O228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P228" t="s" s="2">
-        <v>726</v>
-      </c>
-      <c r="Q228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W228" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="X228" t="s" s="2">
-        <v>727</v>
-      </c>
-      <c r="Y228" t="s" s="2">
-        <v>728</v>
-      </c>
-      <c r="Z228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE228" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="AF228" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG228" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI228" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL228" t="s" s="2">
-        <v>730</v>
-      </c>
-      <c r="AM228" t="s" s="2">
-        <v>731</v>
-      </c>
-      <c r="AN228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO228" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="229" hidden="true">
-      <c r="A229" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="B229" s="2"/>
-      <c r="C229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D229" s="2"/>
-      <c r="E229" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F229" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I229" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J229" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K229" t="s" s="2">
-        <v>733</v>
-      </c>
-      <c r="L229" t="s" s="2">
-        <v>734</v>
-      </c>
-      <c r="M229" s="2"/>
-      <c r="N229" t="s" s="2">
-        <v>735</v>
-      </c>
-      <c r="O229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P229" s="2"/>
-      <c r="Q229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE229" t="s" s="2">
-        <v>736</v>
-      </c>
-      <c r="AF229" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG229" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI229" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL229" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="AM229" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="AN229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO229" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="230" hidden="true">
-      <c r="A230" t="s" s="2">
-        <v>739</v>
-      </c>
-      <c r="B230" s="2"/>
-      <c r="C230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D230" s="2"/>
-      <c r="E230" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F230" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I230" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J230" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K230" t="s" s="2">
-        <v>740</v>
-      </c>
-      <c r="L230" t="s" s="2">
-        <v>741</v>
-      </c>
-      <c r="M230" s="2"/>
-      <c r="N230" t="s" s="2">
-        <v>742</v>
-      </c>
-      <c r="O230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P230" s="2"/>
-      <c r="Q230" t="s" s="2">
-        <v>743</v>
-      </c>
-      <c r="R230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE230" t="s" s="2">
-        <v>744</v>
-      </c>
-      <c r="AF230" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG230" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH230" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="AI230" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL230" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="AM230" t="s" s="2">
-        <v>746</v>
-      </c>
-      <c r="AN230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO230" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="231" hidden="true">
-      <c r="A231" t="s" s="2">
-        <v>747</v>
-      </c>
-      <c r="B231" s="2"/>
-      <c r="C231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D231" s="2"/>
-      <c r="E231" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F231" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I231" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J231" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="K231" t="s" s="2">
-        <v>762</v>
-      </c>
-      <c r="L231" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="M231" t="s" s="2">
-        <v>749</v>
-      </c>
-      <c r="N231" t="s" s="2">
-        <v>750</v>
-      </c>
-      <c r="O231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P231" s="2"/>
-      <c r="Q231" t="s" s="2">
-        <v>751</v>
-      </c>
-      <c r="R231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE231" t="s" s="2">
-        <v>752</v>
-      </c>
-      <c r="AF231" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG231" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI231" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL231" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="AM231" t="s" s="2">
-        <v>753</v>
-      </c>
-      <c r="AN231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO231" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="B232" s="2"/>
-      <c r="C232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D232" s="2"/>
-      <c r="E232" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F232" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G232" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J232" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="K232" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="L232" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="M232" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="N232" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P232" s="2"/>
-      <c r="Q232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W232" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="X232" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="Y232" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="Z232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE232" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="AF232" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG232" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH232" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="AI232" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL232" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM232" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AN232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO232" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="233" hidden="true">
-      <c r="A233" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="B233" s="2"/>
-      <c r="C233" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="D233" s="2"/>
-      <c r="E233" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F233" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J233" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="K233" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="L233" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M233" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N233" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P233" s="2"/>
-      <c r="Q233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W233" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="X233" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="Y233" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="Z233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE233" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="AF233" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG233" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI233" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK233" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AL233" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AM233" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AN233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO233" t="s" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="234" hidden="true">
-      <c r="A234" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="B234" s="2"/>
-      <c r="C234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D234" s="2"/>
-      <c r="E234" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F234" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K234" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="L234" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="M234" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N234" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="O234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P234" s="2"/>
-      <c r="Q234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE234" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="AF234" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG234" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI234" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL234" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AM234" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="AN234" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO234" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AO234">
+  <autoFilter ref="A1:AO184">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -30320,7 +24382,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI233">
+  <conditionalFormatting sqref="A2:AI183">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
